--- a/data/extracted_data/const1/const1-trial1-tdoa3-results-updated-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa3-results-updated-describe.xlsx
@@ -605,7 +605,7 @@
         <v>1.452265161340712</v>
       </c>
       <c r="F3">
-        <v>0.01601371004662785</v>
+        <v>0.03371435061192179</v>
       </c>
       <c r="G3">
         <v>1.159093200588523</v>
@@ -620,7 +620,7 @@
         <v>0.7728712887672321</v>
       </c>
       <c r="K3">
-        <v>0.00483778152380915</v>
+        <v>0.003793722931226271</v>
       </c>
       <c r="L3">
         <v>3.443907032487266</v>
@@ -650,7 +650,7 @@
         <v>1.445880677596687</v>
       </c>
       <c r="U3">
-        <v>42.06776784488294</v>
+        <v>42.07147567485626</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -670,7 +670,7 @@
         <v>0.264667228400273</v>
       </c>
       <c r="F4">
-        <v>0.01758063455157511</v>
+        <v>3.125406207779696</v>
       </c>
       <c r="G4">
         <v>10.5427467366743</v>
@@ -685,7 +685,7 @@
         <v>63.4285433086179</v>
       </c>
       <c r="K4">
-        <v>0.002710070711797729</v>
+        <v>0.01254666399193267</v>
       </c>
       <c r="L4">
         <v>2.389831282903221</v>
@@ -715,7 +715,7 @@
         <v>0.2623372097387929</v>
       </c>
       <c r="U4">
-        <v>24.28821286709146</v>
+        <v>24.28820497863393</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -750,7 +750,7 @@
         <v>-48.84606212882963</v>
       </c>
       <c r="K5">
-        <v>0.0008134841918945312</v>
+        <v>-1.780391931533813</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0.0769999995827674</v>
       </c>
       <c r="U5">
-        <v>0.0061200000000026</v>
+        <v>0.009342000000001733</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -815,7 +815,7 @@
         <v>-1.07854991178053</v>
       </c>
       <c r="K6">
-        <v>0.003937959671020508</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -845,7 +845,7 @@
         <v>1.498000025749206</v>
       </c>
       <c r="U6">
-        <v>20.865847</v>
+        <v>20.86843066666667</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -865,7 +865,7 @@
         <v>1.500931065990113</v>
       </c>
       <c r="F7">
-        <v>0.0009088516235351562</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>8.012757666966963E-05</v>
@@ -880,7 +880,7 @@
         <v>0.5803320420424205</v>
       </c>
       <c r="K7">
-        <v>0.00415349006652832</v>
+        <v>0.003563165664672852</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>1.5</v>
       </c>
       <c r="U7">
-        <v>42.253083</v>
+        <v>42.258138</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -930,7 +930,7 @@
         <v>1.51303858366725</v>
       </c>
       <c r="F8">
-        <v>0.03459882736206055</v>
+        <v>0.02770066261291504</v>
       </c>
       <c r="G8">
         <v>0.00016305819145436</v>
@@ -945,7 +945,7 @@
         <v>1.702174876947538</v>
       </c>
       <c r="K8">
-        <v>0.005038261413574219</v>
+        <v>0.006879925727844238</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>1.503000020980835</v>
       </c>
       <c r="U8">
-        <v>62.9792845</v>
+        <v>62.98390566666667</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -995,7 +995,7 @@
         <v>1.710663924511973</v>
       </c>
       <c r="F9">
-        <v>0.1337378025054932</v>
+        <v>477.7247173786163</v>
       </c>
       <c r="G9">
         <v>228.329180668149</v>
@@ -1010,7 +1010,7 @@
         <v>9682.193272291017</v>
       </c>
       <c r="K9">
-        <v>0.08648514747619629</v>
+        <v>0.113961935043335</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>1.577999949455261</v>
       </c>
       <c r="U9">
-        <v>84.06036600000002</v>
+        <v>84.066405</v>
       </c>
     </row>
   </sheetData>
